--- a/2025 Season/Excel Athlete/July Weekend Battle - Junior Varsity.xlsx
+++ b/2025 Season/Excel Athlete/July Weekend Battle - Junior Varsity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29f448ec057303af/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29f448ec057303af/== Github Repos/MECC/2025 Season/Excel Athlete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{50CDBD77-BEE4-42B0-B794-FC5D400B8BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2842FC5F-DCFF-430C-8446-076B49267DB0}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{50CDBD77-BEE4-42B0-B794-FC5D400B8BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5420501-740F-4621-9256-3A134504CB4F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{EFB72498-9F68-486A-BA2B-9A8F3027C0E2}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EFB72498-9F68-486A-BA2B-9A8F3027C0E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="163" r:id="rId1"/>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA279CD-24BC-40D7-814D-C4070B2E52CD}">
   <dimension ref="A1:XX1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15.75"/>
